--- a/meta/dimension.xlsx
+++ b/meta/dimension.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Documents\GitHub\wcde-shiny-2023\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEFFB9F-B2AE-4BD5-A950-B217D0374ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13500"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimension" sheetId="1" r:id="rId1"/>
@@ -13,67 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Reiter, Claudia</author>
-  </authors>
-  <commentList>
-    <comment ref="A72" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Reiter, Claudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-only applicable with 6 education categories (edu8 = 0)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A73" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Reiter, Claudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-only applicable with 8 education categories (edu8 = 1)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>dim</t>
   </si>
@@ -285,27 +232,9 @@
     <t>dblmig_SSP2</t>
   </si>
   <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>Highest level of education attained: Completed ISCED 6 and incomplete ISCED 7</t>
-  </si>
-  <si>
-    <t>Highest level of education attained: Completed ISCED 7 or 8</t>
-  </si>
-  <si>
     <t>Highest level of education attained: Completed ISCED 4 5 6 7 or 8</t>
   </si>
   <si>
-    <t>Highest level of education attained: Completed ISCED 4 or 5</t>
-  </si>
-  <si>
-    <t>Master and higher</t>
-  </si>
-  <si>
-    <t>Short Post Secondary</t>
-  </si>
-  <si>
     <t>Population Component of Rapid Development (SSP1): This scenario assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this SSP.</t>
   </si>
   <si>
@@ -345,15 +274,6 @@
     <t>e6</t>
   </si>
   <si>
-    <t>e6i</t>
-  </si>
-  <si>
-    <t>e7i</t>
-  </si>
-  <si>
-    <t>e8i</t>
-  </si>
-  <si>
     <t>Highest level of education attained: Completed ISCED 3 and incomplete ISCED 4 5 or 6</t>
   </si>
   <si>
@@ -367,13 +287,31 @@
   </si>
   <si>
     <t>SSP2ZM</t>
+  </si>
+  <si>
+    <t>Inequality (SSP4)</t>
+  </si>
+  <si>
+    <t>SSP4</t>
+  </si>
+  <si>
+    <t>Population Component of Inequality (SSP4): This scenario assumes increasing inequalities and stratification both across and within countries. It assumes high fertility and mortality scenarios in high-fertility countries and low fertility and medium mortality scenarios in low-fertility countries combined with medium migration scenario. In terms of education the SSP3 education transitions (CER) are decreased by 10% for levels up to lower secondary education, keeping the SSP2 (GET) education transitions for upper and post-secondary education.</t>
+  </si>
+  <si>
+    <t>Conventional development (SSP5)</t>
+  </si>
+  <si>
+    <t>SSP5</t>
+  </si>
+  <si>
+    <t>Population Component of Conventional Development (SSP5): This scenario is similar to SSP1 for the fertility, mortality and education assumptions except that it combines them with high migration scenario in a context of widespread globalization.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,21 +447,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,18 +626,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -876,10 +789,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -940,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -980,7 +891,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1052,7 +963,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,20 +1136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1292,13 +1203,13 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1312,1078 +1223,1032 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="F11">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>21</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>2064</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="F45">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>21</v>
       </c>
-      <c r="F61">
+      <c r="F63">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F67">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
         <v>52</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>6</v>
       </c>
-      <c r="E71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B74" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C74">
         <v>7</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="1">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="1">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="1">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="F74" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>